--- a/exposan/bwaise/results/sysB_lca.xlsx
+++ b/exposan/bwaise/results/sysB_lca.xlsx
@@ -85,7 +85,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Trucking [tonne*km]</t>
+    <t>item28 [tonne*km]</t>
   </si>
   <si>
     <t>B3</t>
@@ -127,7 +127,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>e_item [kWh]</t>
+    <t>E_item [kWh]</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>198450</v>
       </c>
       <c r="F2">
-        <v>0.04824098590377461</v>
+        <v>0.03049262772909476</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -546,7 +546,7 @@
         <v>198450</v>
       </c>
       <c r="F3">
-        <v>0.04824098590377461</v>
+        <v>0.03049262772909476</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -566,7 +566,7 @@
         <v>2362500</v>
       </c>
       <c r="F4">
-        <v>0.574297451235412</v>
+        <v>0.3630074729654137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -584,7 +584,7 @@
         <v>2362500</v>
       </c>
       <c r="F5">
-        <v>0.574297451235412</v>
+        <v>0.3630074729654137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -604,7 +604,7 @@
         <v>6862.5</v>
       </c>
       <c r="F6">
-        <v>0.001668197358350482</v>
+        <v>0.001054450278613821</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -622,7 +622,7 @@
         <v>27616.80149999999</v>
       </c>
       <c r="F7">
-        <v>0.006713337021258962</v>
+        <v>0.004243430824932252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -640,7 +640,7 @@
         <v>86748.99299999999</v>
       </c>
       <c r="F8">
-        <v>0.02108771453000575</v>
+        <v>0.01332932602379867</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -658,7 +658,7 @@
         <v>121228.2945</v>
       </c>
       <c r="F9">
-        <v>0.0294692489096152</v>
+        <v>0.01862720712734474</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -678,7 +678,7 @@
         <v>6055.250000000001</v>
       </c>
       <c r="F10">
-        <v>0.001471963869457451</v>
+        <v>0.0009304131219783373</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -696,7 +696,7 @@
         <v>112.625</v>
       </c>
       <c r="F11">
-        <v>2.737788378640773E-05</v>
+        <v>1.730527688581152E-05</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -714,7 +714,7 @@
         <v>6167.875000000001</v>
       </c>
       <c r="F12">
-        <v>0.001499341753243859</v>
+        <v>0.0009477183988641488</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -734,7 +734,7 @@
         <v>60000</v>
       </c>
       <c r="F13">
-        <v>0.01458533209486761</v>
+        <v>0.009219237408645428</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -752,7 +752,7 @@
         <v>1700</v>
       </c>
       <c r="F14">
-        <v>0.0004132510760212488</v>
+        <v>0.0002612117265782871</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -770,7 +770,7 @@
         <v>61700</v>
       </c>
       <c r="F15">
-        <v>0.01499858317088885</v>
+        <v>0.009480449135223716</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,7 +790,7 @@
         <v>62055</v>
       </c>
       <c r="F16">
-        <v>0.01508487971911682</v>
+        <v>0.009534996289891535</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -808,7 +808,7 @@
         <v>62055</v>
       </c>
       <c r="F17">
-        <v>0.01508487971911682</v>
+        <v>0.009534996289891535</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -828,7 +828,7 @@
         <v>118965</v>
       </c>
       <c r="F18">
-        <v>0.02891906721109875</v>
+        <v>0.01827944297199172</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -846,7 +846,7 @@
         <v>118965</v>
       </c>
       <c r="F19">
-        <v>0.02891906721109875</v>
+        <v>0.01827944297199172</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -866,7 +866,7 @@
         <v>267550.78125</v>
       </c>
       <c r="F20">
-        <v>0.06503861661287545</v>
+        <v>0.04111023618687183</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -902,7 +902,7 @@
         <v>267550.78125</v>
       </c>
       <c r="F22">
-        <v>0.06503861661287545</v>
+        <v>0.04111023618687183</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -922,7 +922,7 @@
         <v>116968.75</v>
       </c>
       <c r="F23">
-        <v>0.02843380105785909</v>
+        <v>0.01797271126070825</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -940,7 +940,7 @@
         <v>116968.75</v>
       </c>
       <c r="F24">
-        <v>0.02843380105785909</v>
+        <v>0.01797271126070825</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -951,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>4113721.8960625</v>
+        <v>6508130.482</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1048,13 +1048,13 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>405532.7246919409</v>
+        <v>405530.7657731167</v>
       </c>
       <c r="C35">
-        <v>11354916.29137434</v>
+        <v>11354861.44164727</v>
       </c>
       <c r="D35">
-        <v>2.127125297204742</v>
+        <v>2.127136878583531</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>25957.98300003773</v>
       </c>
       <c r="D36">
-        <v>0.004862729137486916</v>
+        <v>0.004862779102746523</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1076,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="B37">
-        <v>768085.0074808986</v>
+        <v>768085.0074808991</v>
       </c>
       <c r="C37">
-        <v>-2306774.376275814</v>
+        <v>-2306774.376275816</v>
       </c>
       <c r="D37">
-        <v>-0.4321298374033262</v>
+        <v>-0.4321342776011864</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>-406439.721193968</v>
       </c>
       <c r="D38">
-        <v>-0.07613866897436114</v>
+        <v>-0.07613945131042262</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1104,13 +1104,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>453682.9082841852</v>
+        <v>453682.9082841854</v>
       </c>
       <c r="C39">
-        <v>-2449887.7047346</v>
+        <v>-2449887.704734601</v>
       </c>
       <c r="D39">
-        <v>-0.4589393684927895</v>
+        <v>-0.4589440841625387</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>-579770.8141900059</v>
       </c>
       <c r="D40">
-        <v>-0.1086089173886182</v>
+        <v>-0.1086100333612747</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>-61971.80829840001</v>
       </c>
       <c r="D41">
-        <v>-0.01160922703104263</v>
+        <v>-0.01160934631756385</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1149,10 +1149,10 @@
         <v>17513.18518962368</v>
       </c>
       <c r="C42">
-        <v>-94571.20002396786</v>
+        <v>-94571.20002396787</v>
       </c>
       <c r="D42">
-        <v>-0.01771609642871649</v>
+        <v>-0.01771627846422213</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1160,13 +1160,13 @@
         <v>35</v>
       </c>
       <c r="B43">
-        <v>29246.43426705</v>
+        <v>29246.43426704999</v>
       </c>
       <c r="C43">
         <v>-143307.527908545</v>
       </c>
       <c r="D43">
-        <v>-0.02684591062337503</v>
+        <v>-0.02684618646906903</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>5338151.121749083</v>
+        <v>5338096.272022005</v>
       </c>
       <c r="D44">
         <v>1</v>

--- a/exposan/bwaise/results/sysB_lca.xlsx
+++ b/exposan/bwaise/results/sysB_lca.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AF7EC334C4980C72487F932020EC6F6560B4EC49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8D5D5B-8240-4D4E-84ED-592A3C60C2F6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31060" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -197,6 +206,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,14 +537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -511,8 +567,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -528,11 +584,11 @@
         <v>198450</v>
       </c>
       <c r="F2">
-        <v>0.03049262772909476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+        <v>3.0492627729094762E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -546,11 +602,11 @@
         <v>198450</v>
       </c>
       <c r="F3">
-        <v>0.03049262772909476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+        <v>3.0492627729094762E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -566,11 +622,11 @@
         <v>2362500</v>
       </c>
       <c r="F4">
-        <v>0.3630074729654137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
+        <v>0.36300747296541369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -584,11 +640,11 @@
         <v>2362500</v>
       </c>
       <c r="F5">
-        <v>0.3630074729654137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+        <v>0.36300747296541369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -598,58 +654,58 @@
         <v>22.875</v>
       </c>
       <c r="D6">
-        <v>0.05660807180620693</v>
+        <v>5.660807180620693E-2</v>
       </c>
       <c r="E6">
         <v>6862.5</v>
       </c>
       <c r="F6">
-        <v>0.001054450278613821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
+        <v>1.054450278613821E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <v>92.05600499999998</v>
+        <v>92.056004999999985</v>
       </c>
       <c r="D7">
-        <v>0.2278082160101658</v>
+        <v>0.22780821601016579</v>
       </c>
       <c r="E7">
         <v>27616.80149999999</v>
       </c>
       <c r="F7">
-        <v>0.004243430824932252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+        <v>4.2434308249322521E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>289.16331</v>
+        <v>289.16331000000002</v>
       </c>
       <c r="D8">
-        <v>0.7155837121836273</v>
+        <v>0.71558371218362726</v>
       </c>
       <c r="E8">
-        <v>86748.99299999999</v>
+        <v>86748.992999999988</v>
       </c>
       <c r="F8">
-        <v>0.01332932602379867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+        <v>1.332932602379867E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>404.0943149999999</v>
+        <v>404.09431499999988</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -658,11 +714,11 @@
         <v>121228.2945</v>
       </c>
       <c r="F9">
-        <v>0.01862720712734474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+        <v>1.8627207127344739E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -672,17 +728,17 @@
         <v>11425</v>
       </c>
       <c r="D10">
-        <v>0.9817400644468314</v>
+        <v>0.98174006444683137</v>
       </c>
       <c r="E10">
-        <v>6055.250000000001</v>
+        <v>6055.2500000000009</v>
       </c>
       <c r="F10">
-        <v>0.0009304131219783373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+        <v>9.3041312197833731E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -690,17 +746,17 @@
         <v>212.5</v>
       </c>
       <c r="D11">
-        <v>0.01825993555316863</v>
+        <v>1.825993555316863E-2</v>
       </c>
       <c r="E11">
         <v>112.625</v>
       </c>
       <c r="F11">
-        <v>1.730527688581152E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+        <v>1.7305276885811521E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -711,14 +767,14 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6167.875000000001</v>
+        <v>6167.8750000000009</v>
       </c>
       <c r="F12">
-        <v>0.0009477183988641488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+        <v>9.477183988641488E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -728,17 +784,17 @@
         <v>4000000</v>
       </c>
       <c r="D13">
-        <v>0.972447325769854</v>
+        <v>0.97244732576985404</v>
       </c>
       <c r="E13">
         <v>60000</v>
       </c>
       <c r="F13">
-        <v>0.009219237408645428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
+        <v>9.2192374086454282E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -746,17 +802,17 @@
         <v>113333.3333333333</v>
       </c>
       <c r="D14">
-        <v>0.02755267423014586</v>
+        <v>2.755267423014586E-2</v>
       </c>
       <c r="E14">
         <v>1700</v>
       </c>
       <c r="F14">
-        <v>0.0002612117265782871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
+        <v>2.6121172657828708E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -770,11 +826,11 @@
         <v>61700</v>
       </c>
       <c r="F15">
-        <v>0.009480449135223716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+        <v>9.4804491352237161E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -790,11 +846,11 @@
         <v>62055</v>
       </c>
       <c r="F16">
-        <v>0.009534996289891535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+        <v>9.5349962898915348E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -808,11 +864,11 @@
         <v>62055</v>
       </c>
       <c r="F17">
-        <v>0.009534996289891535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+        <v>9.5349962898915348E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -828,11 +884,11 @@
         <v>118965</v>
       </c>
       <c r="F18">
-        <v>0.01827944297199172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
+        <v>1.827944297199172E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -846,11 +902,11 @@
         <v>118965</v>
       </c>
       <c r="F19">
-        <v>0.01827944297199172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+        <v>1.827944297199172E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -866,11 +922,11 @@
         <v>267550.78125</v>
       </c>
       <c r="F20">
-        <v>0.04111023618687183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+        <v>4.1110236186871832E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -887,8 +943,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -902,11 +958,11 @@
         <v>267550.78125</v>
       </c>
       <c r="F22">
-        <v>0.04111023618687183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+        <v>4.1110236186871832E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -922,11 +978,11 @@
         <v>116968.75</v>
       </c>
       <c r="F23">
-        <v>0.01797271126070825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
+        <v>1.7972711260708249E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -940,10 +996,10 @@
         <v>116968.75</v>
       </c>
       <c r="F24">
-        <v>0.01797271126070825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1.7972711260708249E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -951,13 +1007,13 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>6508130.482</v>
+        <v>6508130.4819999998</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,15 +1033,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C29">
-        <v>675000.0000000006</v>
+        <v>675000.00000000058</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -997,13 +1053,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C30">
-        <v>675000.0000000006</v>
+        <v>675000.00000000058</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1015,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1043,35 +1099,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35">
-        <v>405530.7657731167</v>
+        <v>405530.76577311673</v>
       </c>
       <c r="C35">
-        <v>11354861.44164727</v>
+        <v>11354861.441647271</v>
       </c>
       <c r="D35">
         <v>2.127136878583531</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36">
-        <v>97.95465283033106</v>
+        <v>97.954652830331057</v>
       </c>
       <c r="C36">
         <v>25957.98300003773</v>
       </c>
       <c r="D36">
-        <v>0.004862779102746523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>4.8627791027465233E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1082,10 +1138,10 @@
         <v>-2306774.376275816</v>
       </c>
       <c r="D37">
-        <v>-0.4321342776011864</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.43213427760118639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1093,13 +1149,13 @@
         <v>270959.814129312</v>
       </c>
       <c r="C38">
-        <v>-406439.721193968</v>
+        <v>-406439.72119396803</v>
       </c>
       <c r="D38">
-        <v>-0.07613945131042262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-7.6139451310422615E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1107,13 +1163,13 @@
         <v>453682.9082841854</v>
       </c>
       <c r="C39">
-        <v>-2449887.704734601</v>
+        <v>-2449887.7047346011</v>
       </c>
       <c r="D39">
-        <v>-0.4589440841625387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.45894408416253868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1121,27 +1177,27 @@
         <v>118320.574324491</v>
       </c>
       <c r="C40">
-        <v>-579770.8141900059</v>
+        <v>-579770.81419000588</v>
       </c>
       <c r="D40">
         <v>-0.1086100333612747</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B41">
-        <v>41314.53886560001</v>
+        <v>41314.538865600007</v>
       </c>
       <c r="C41">
-        <v>-61971.80829840001</v>
+        <v>-61971.808298400007</v>
       </c>
       <c r="D41">
-        <v>-0.01160934631756385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-1.160934631756385E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1149,13 +1205,13 @@
         <v>17513.18518962368</v>
       </c>
       <c r="C42">
-        <v>-94571.20002396787</v>
+        <v>-94571.200023967875</v>
       </c>
       <c r="D42">
-        <v>-0.01771627846422213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-1.7716278464222131E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1163,24 +1219,24 @@
         <v>29246.43426704999</v>
       </c>
       <c r="C43">
-        <v>-143307.527908545</v>
+        <v>-143307.52790854499</v>
       </c>
       <c r="D43">
-        <v>-0.02684618646906903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-2.6846186469069031E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C44">
-        <v>5338096.272022005</v>
+        <v>5338096.2720220052</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1194,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1208,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,16 +1277,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysB_lca.xlsx
+++ b/exposan/bwaise/results/sysB_lca.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/es/exposan/bwaise/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AF7EC334C4980C72487F932020EC6F6560B4EC49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8D5D5B-8240-4D4E-84ED-592A3C60C2F6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31060" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="LCA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,7 +85,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item28 [tonne*km]</t>
+    <t>item34 [tonne*km]</t>
   </si>
   <si>
     <t>B3</t>
@@ -139,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,11 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -206,14 +197,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,27 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,24 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,17 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,8 +511,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -584,11 +528,11 @@
         <v>198450</v>
       </c>
       <c r="F2">
-        <v>3.0492627729094762E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+        <v>0.04827303874295995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -602,11 +546,11 @@
         <v>198450</v>
       </c>
       <c r="F3">
-        <v>3.0492627729094762E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+        <v>0.04827303874295995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -622,11 +566,11 @@
         <v>2362500</v>
       </c>
       <c r="F4">
-        <v>0.36300747296541369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+        <v>0.574679032654285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -640,11 +584,11 @@
         <v>2362500</v>
       </c>
       <c r="F5">
-        <v>0.36300747296541369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+        <v>0.574679032654285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -654,58 +598,58 @@
         <v>22.875</v>
       </c>
       <c r="D6">
-        <v>5.660807180620693E-2</v>
+        <v>0.05660807180620693</v>
       </c>
       <c r="E6">
         <v>6862.5</v>
       </c>
       <c r="F6">
-        <v>1.054450278613821E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+        <v>0.00166930576151959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7">
-        <v>92.056004999999985</v>
+        <v>92.05600499999998</v>
       </c>
       <c r="D7">
-        <v>0.22780821601016579</v>
+        <v>0.2278082160101658</v>
       </c>
       <c r="E7">
         <v>27616.80149999999</v>
       </c>
       <c r="F7">
-        <v>4.2434308249322521E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+        <v>0.006717797575037208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>289.16331000000002</v>
+        <v>289.16331</v>
       </c>
       <c r="D8">
-        <v>0.71558371218362726</v>
+        <v>0.7155837121836273</v>
       </c>
       <c r="E8">
-        <v>86748.992999999988</v>
+        <v>86748.99299999999</v>
       </c>
       <c r="F8">
-        <v>1.332932602379867E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+        <v>0.02110172587554427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9">
-        <v>404.09431499999988</v>
+        <v>404.0943149999999</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -714,11 +658,11 @@
         <v>121228.2945</v>
       </c>
       <c r="F9">
-        <v>1.8627207127344739E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+        <v>0.02948882921210106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -728,17 +672,17 @@
         <v>11425</v>
       </c>
       <c r="D10">
-        <v>0.98174006444683137</v>
+        <v>0.9817400644468314</v>
       </c>
       <c r="E10">
-        <v>6055.2500000000009</v>
+        <v>6055.250000000001</v>
       </c>
       <c r="F10">
-        <v>9.3041312197833731E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+        <v>0.001472941888880364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -746,17 +690,17 @@
         <v>212.5</v>
       </c>
       <c r="D11">
-        <v>1.825993555316863E-2</v>
+        <v>0.01825993555316863</v>
       </c>
       <c r="E11">
         <v>112.625</v>
       </c>
       <c r="F11">
-        <v>1.7305276885811521E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+        <v>2.739607451965666E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,14 +711,14 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6167.8750000000009</v>
+        <v>6167.875000000001</v>
       </c>
       <c r="F12">
-        <v>9.477183988641488E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+        <v>0.001500337963400021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -784,17 +728,17 @@
         <v>4000000</v>
       </c>
       <c r="D13">
-        <v>0.97244732576985404</v>
+        <v>0.972447325769854</v>
       </c>
       <c r="E13">
         <v>60000</v>
       </c>
       <c r="F13">
-        <v>9.2192374086454282E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+        <v>0.0145950230515374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -802,17 +746,17 @@
         <v>113333.3333333333</v>
       </c>
       <c r="D14">
-        <v>2.755267423014586E-2</v>
+        <v>0.02755267423014586</v>
       </c>
       <c r="E14">
         <v>1700</v>
       </c>
       <c r="F14">
-        <v>2.6121172657828708E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+        <v>0.0004135256531268929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -826,11 +770,11 @@
         <v>61700</v>
       </c>
       <c r="F15">
-        <v>9.4804491352237161E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+        <v>0.01500854870466429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -846,11 +790,11 @@
         <v>62055</v>
       </c>
       <c r="F16">
-        <v>9.5349962898915348E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+        <v>0.01509490259105255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -864,11 +808,11 @@
         <v>62055</v>
       </c>
       <c r="F17">
-        <v>9.5349962898915348E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+        <v>0.01509490259105255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -884,11 +828,11 @@
         <v>118965</v>
       </c>
       <c r="F18">
-        <v>1.827944297199172E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+        <v>0.02893828195543578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -902,11 +846,11 @@
         <v>118965</v>
       </c>
       <c r="F19">
-        <v>1.827944297199172E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+        <v>0.02893828195543578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -922,11 +866,11 @@
         <v>267550.78125</v>
       </c>
       <c r="F20">
-        <v>4.1110236186871832E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+        <v>0.06508183033000983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
@@ -943,8 +887,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -958,11 +902,11 @@
         <v>267550.78125</v>
       </c>
       <c r="F22">
-        <v>4.1110236186871832E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+        <v>0.06508183033000983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -978,11 +922,11 @@
         <v>116968.75</v>
       </c>
       <c r="F23">
-        <v>1.7972711260708249E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+        <v>0.02845269337599192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -996,10 +940,10 @@
         <v>116968.75</v>
       </c>
       <c r="F24">
-        <v>1.7972711260708249E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.02845269337599192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1007,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>6508130.4819999998</v>
+        <v>4110990.423799281</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1033,15 +977,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C29">
-        <v>675000.00000000058</v>
+        <v>675000.0000000006</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1053,13 +997,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C30">
-        <v>675000.00000000058</v>
+        <v>675000.0000000006</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1071,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1099,35 +1043,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35">
-        <v>405530.76577311673</v>
+        <v>423441.1260737677</v>
       </c>
       <c r="C35">
-        <v>11354861.441647271</v>
+        <v>11856351.5300655</v>
       </c>
       <c r="D35">
-        <v>2.127136878583531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.001892951908448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B36">
-        <v>97.954652830331057</v>
+        <v>185.0975814676329</v>
       </c>
       <c r="C36">
-        <v>25957.98300003773</v>
+        <v>49050.85908892273</v>
       </c>
       <c r="D36">
-        <v>4.8627791027465233E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.008282022411883265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1138,10 +1082,10 @@
         <v>-2306774.376275816</v>
       </c>
       <c r="D37">
-        <v>-0.43213427760118639</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.3894887355354968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,13 +1093,13 @@
         <v>270959.814129312</v>
       </c>
       <c r="C38">
-        <v>-406439.72119396803</v>
+        <v>-406439.721193968</v>
       </c>
       <c r="D38">
-        <v>-7.6139451310422615E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.06862556421092759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1163,13 +1107,13 @@
         <v>453682.9082841854</v>
       </c>
       <c r="C39">
-        <v>-2449887.7047346011</v>
+        <v>-2449887.704734601</v>
       </c>
       <c r="D39">
-        <v>-0.45894408416253868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.4136527933267403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1177,41 +1121,41 @@
         <v>118320.574324491</v>
       </c>
       <c r="C40">
-        <v>-579770.81419000588</v>
+        <v>-579770.8141900059</v>
       </c>
       <c r="D40">
-        <v>-0.1086100333612747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.0978917590041111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B41">
-        <v>41314.538865600007</v>
+        <v>41314.53886560001</v>
       </c>
       <c r="C41">
-        <v>-61971.808298400007</v>
+        <v>-61971.80829840001</v>
       </c>
       <c r="D41">
-        <v>-1.160934631756385E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.01046366801245671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B42">
-        <v>17513.18518962368</v>
+        <v>6422.266999421625</v>
       </c>
       <c r="C42">
-        <v>-94571.200023967875</v>
+        <v>-34680.24179687678</v>
       </c>
       <c r="D42">
-        <v>-1.7716278464222131E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.005855606714055052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1219,24 +1163,24 @@
         <v>29246.43426704999</v>
       </c>
       <c r="C43">
-        <v>-143307.52790854499</v>
+        <v>-143307.527908545</v>
       </c>
       <c r="D43">
-        <v>-2.6846186469069031E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.02419684751654413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C44">
-        <v>5338096.2720220052</v>
+        <v>5922570.194756206</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1250,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1258,18 +1202,18 @@
         <v>68540</v>
       </c>
       <c r="C48">
-        <v>10281</v>
+        <v>7779.29</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>10281</v>
+        <v>7779.29</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1277,16 +1221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysB_lca.xlsx
+++ b/exposan/bwaise/results/sysB_lca.xlsx
@@ -85,7 +85,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item34 [tonne*km]</t>
+    <t>item32 [tonne*km]</t>
   </si>
   <si>
     <t>B3</t>
@@ -1048,13 +1048,13 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>423441.1260737677</v>
+        <v>423019.9545179285</v>
       </c>
       <c r="C35">
-        <v>11856351.5300655</v>
+        <v>11844558.726502</v>
       </c>
       <c r="D35">
-        <v>2.001892951908448</v>
+        <v>1.94170821546224</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1062,13 +1062,13 @@
         <v>28</v>
       </c>
       <c r="B36">
-        <v>185.0975814676329</v>
+        <v>168.2650114473814</v>
       </c>
       <c r="C36">
-        <v>49050.85908892273</v>
+        <v>44590.22803355608</v>
       </c>
       <c r="D36">
-        <v>0.008282022411883265</v>
+        <v>0.007309787903568456</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>-2306774.376275816</v>
       </c>
       <c r="D37">
-        <v>-0.3894887355354968</v>
+        <v>-0.3781553083620298</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>-406439.721193968</v>
       </c>
       <c r="D38">
-        <v>-0.06862556421092759</v>
+        <v>-0.06662868275258887</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1104,13 +1104,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>453682.9082841854</v>
+        <v>418058.5060666986</v>
       </c>
       <c r="C39">
-        <v>-2449887.704734601</v>
+        <v>-2257515.932760173</v>
       </c>
       <c r="D39">
-        <v>-0.4136527933267403</v>
+        <v>-0.370080248187673</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>-579770.8141900059</v>
       </c>
       <c r="D40">
-        <v>-0.0978917590041111</v>
+        <v>-0.09504328350191123</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>-61971.80829840001</v>
       </c>
       <c r="D41">
-        <v>-0.01046366801245671</v>
+        <v>-0.01015919394538653</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1146,13 +1146,13 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>6422.266999421625</v>
+        <v>6166.182812556737</v>
       </c>
       <c r="C42">
-        <v>-34680.24179687678</v>
+        <v>-33297.38718780638</v>
       </c>
       <c r="D42">
-        <v>-0.005855606714055052</v>
+        <v>-0.005458524183879385</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>-143307.527908545</v>
       </c>
       <c r="D43">
-        <v>-0.02419684751654413</v>
+        <v>-0.02349276243233957</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>5922570.194756206</v>
+        <v>6100071.386720844</v>
       </c>
       <c r="D44">
         <v>1</v>

--- a/exposan/bwaise/results/sysB_lca.xlsx
+++ b/exposan/bwaise/results/sysB_lca.xlsx
@@ -85,7 +85,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>item32 [tonne*km]</t>
+    <t>Trucking [tonne*km]</t>
   </si>
   <si>
     <t>B3</t>
@@ -519,16 +519,16 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>708750</v>
+        <v>885937.5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>198450</v>
+        <v>248062.5</v>
       </c>
       <c r="F2">
-        <v>0.04827303874295995</v>
+        <v>0.06034129842869993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -537,16 +537,16 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>708750</v>
+        <v>885937.5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>198450</v>
+        <v>248062.5</v>
       </c>
       <c r="F3">
-        <v>0.04827303874295995</v>
+        <v>0.06034129842869993</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -557,16 +557,16 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2187500</v>
+        <v>2734375</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2362500</v>
+        <v>2953125</v>
       </c>
       <c r="F4">
-        <v>0.574679032654285</v>
+        <v>0.7183487908178563</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -575,16 +575,16 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>2187500</v>
+        <v>2734375</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2362500</v>
+        <v>2953125</v>
       </c>
       <c r="F5">
-        <v>0.574679032654285</v>
+        <v>0.7183487908178563</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -669,16 +669,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>11425</v>
+        <v>14281.25</v>
       </c>
       <c r="D10">
-        <v>0.9817400644468314</v>
+        <v>0.9853385079775765</v>
       </c>
       <c r="E10">
-        <v>6055.250000000001</v>
+        <v>7569.062500000001</v>
       </c>
       <c r="F10">
-        <v>0.001472941888880364</v>
+        <v>0.001841177361100455</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -690,7 +690,7 @@
         <v>212.5</v>
       </c>
       <c r="D11">
-        <v>0.01825993555316863</v>
+        <v>0.01466149202242346</v>
       </c>
       <c r="E11">
         <v>112.625</v>
@@ -705,16 +705,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>11637.5</v>
+        <v>14493.75</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6167.875000000001</v>
+        <v>7681.687500000001</v>
       </c>
       <c r="F12">
-        <v>0.001500337963400021</v>
+        <v>0.001868573435620111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -725,16 +725,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="D13">
-        <v>0.972447325769854</v>
+        <v>0.9778357235984355</v>
       </c>
       <c r="E13">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="F13">
-        <v>0.0145950230515374</v>
+        <v>0.01824377881442175</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -746,7 +746,7 @@
         <v>113333.3333333333</v>
       </c>
       <c r="D14">
-        <v>0.02755267423014586</v>
+        <v>0.02216427640156454</v>
       </c>
       <c r="E14">
         <v>1700</v>
@@ -761,16 +761,16 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>4113333.333333333</v>
+        <v>5113333.333333333</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61700</v>
+        <v>76699.99999999999</v>
       </c>
       <c r="F15">
-        <v>0.01500854870466429</v>
+        <v>0.01865730446754863</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -781,16 +781,16 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>31500</v>
+        <v>39375</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62055</v>
+        <v>77568.75</v>
       </c>
       <c r="F16">
-        <v>0.01509490259105255</v>
+        <v>0.01886862823881569</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -799,16 +799,16 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>31500</v>
+        <v>39375</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62055</v>
+        <v>77568.75</v>
       </c>
       <c r="F17">
-        <v>0.01509490259105255</v>
+        <v>0.01886862823881569</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -819,16 +819,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9913750</v>
+        <v>12392187.5</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>118965</v>
+        <v>148706.25</v>
       </c>
       <c r="F18">
-        <v>0.02893828195543578</v>
+        <v>0.03617285244429472</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -837,16 +837,16 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9913750</v>
+        <v>12392187.5</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>118965</v>
+        <v>148706.25</v>
       </c>
       <c r="F19">
-        <v>0.02893828195543578</v>
+        <v>0.03617285244429472</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -857,16 +857,16 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>104921.875</v>
+        <v>131152.34375</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>267550.78125</v>
+        <v>334438.4765625001</v>
       </c>
       <c r="F20">
-        <v>0.06508183033000983</v>
+        <v>0.0813522879125123</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -893,16 +893,16 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>104921.875</v>
+        <v>131152.34375</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>267550.78125</v>
+        <v>334438.4765625001</v>
       </c>
       <c r="F22">
-        <v>0.06508183033000983</v>
+        <v>0.0813522879125123</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -913,16 +913,16 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>593.75</v>
+        <v>742.1875</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>116968.75</v>
+        <v>146210.9375</v>
       </c>
       <c r="F23">
-        <v>0.02845269337599192</v>
+        <v>0.0355658667199899</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -931,16 +931,16 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>593.75</v>
+        <v>742.1875</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>116968.75</v>
+        <v>146210.9375</v>
       </c>
       <c r="F24">
-        <v>0.02845269337599192</v>
+        <v>0.0355658667199899</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -985,7 +985,7 @@
         <v>24</v>
       </c>
       <c r="C29">
-        <v>675000.0000000006</v>
+        <v>675000.0000000007</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>675000.0000000006</v>
+        <v>675000.0000000007</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>11844558.726502</v>
       </c>
       <c r="D35">
-        <v>1.94170821546224</v>
+        <v>1.941708215462239</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1065,10 +1065,10 @@
         <v>168.2650114473814</v>
       </c>
       <c r="C36">
-        <v>44590.22803355608</v>
+        <v>44590.22803355606</v>
       </c>
       <c r="D36">
-        <v>0.007309787903568456</v>
+        <v>0.007309787903568453</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1076,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="B37">
-        <v>768085.0074808991</v>
+        <v>768085.007480899</v>
       </c>
       <c r="C37">
-        <v>-2306774.376275816</v>
+        <v>-2306774.376275815</v>
       </c>
       <c r="D37">
-        <v>-0.3781553083620298</v>
+        <v>-0.3781553083620297</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>-406439.721193968</v>
       </c>
       <c r="D38">
-        <v>-0.06662868275258887</v>
+        <v>-0.06662868275258886</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1104,13 +1104,13 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>418058.5060666986</v>
+        <v>418058.5060666984</v>
       </c>
       <c r="C39">
-        <v>-2257515.932760173</v>
+        <v>-2257515.932760172</v>
       </c>
       <c r="D39">
-        <v>-0.370080248187673</v>
+        <v>-0.3700802481876728</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>-579770.8141900059</v>
       </c>
       <c r="D40">
-        <v>-0.09504328350191123</v>
+        <v>-0.09504328350191121</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1146,13 +1146,13 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>6166.182812556737</v>
+        <v>6166.182812556733</v>
       </c>
       <c r="C42">
-        <v>-33297.38718780638</v>
+        <v>-33297.38718780636</v>
       </c>
       <c r="D42">
-        <v>-0.005458524183879385</v>
+        <v>-0.005458524183879381</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>6100071.386720844</v>
+        <v>6100071.386720845</v>
       </c>
       <c r="D44">
         <v>1</v>
